--- a/admin/export/TK Äá»€ TÃ€I NCKH ÄÃƒ NGHIá»†M THU.xlsx
+++ b/admin/export/TK Äá»€ TÃ€I NCKH ÄÃƒ NGHIá»†M THU.xlsx
@@ -47,7 +47,7 @@
     <t>2018-05-10</t>
   </si>
   <si>
-    <t>Nguyễn Nhựt Nam, Khoa công nghệ thông tin</t>
+    <t>Nguyễn Thanh Hoàng, Khoa công nghệ thông tin</t>
   </si>
   <si>
     <t>2. Cấp tỉnh</t>
@@ -56,7 +56,7 @@
     <t>Đề tài đã nghiệm thu demo</t>
   </si>
   <si>
-    <t>2018-05-16</t>
+    <t>2018-06-16</t>
   </si>
 </sst>
 </file>
@@ -456,7 +456,7 @@
     <col min="1" max="1" width="2.285156" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="30.563965" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="49.416504" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="52.987061" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="3.427734" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="3.427734" bestFit="true" customWidth="true" style="0"/>
   </cols>
